--- a/PROJ1/marksheets/1401CB57.xlsx
+++ b/PROJ1/marksheets/1401CB57.xlsx
@@ -631,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="8" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
